--- a/sample/db/マスタ関連.xlsx
+++ b/sample/db/マスタ関連.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" tabRatio="844" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" tabRatio="844" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="14" r:id="rId1"/>
     <sheet name="カラム定義" sheetId="10" r:id="rId2"/>
-    <sheet name="m_sys_user" sheetId="1" r:id="rId3"/>
-    <sheet name="m_sys_group" sheetId="4" r:id="rId4"/>
-    <sheet name="m_sys_user_group" sheetId="5" r:id="rId5"/>
-    <sheet name="t_user_ope_history" sheetId="6" r:id="rId6"/>
-    <sheet name="m_sys_role" sheetId="8" r:id="rId7"/>
-    <sheet name="m_sys_authority" sheetId="9" r:id="rId8"/>
-    <sheet name="m_sys_role_authority" sheetId="12" r:id="rId9"/>
-    <sheet name="m_sys_user_role" sheetId="13" r:id="rId10"/>
-    <sheet name="m_sys_group_role" sheetId="15" r:id="rId11"/>
-    <sheet name="t_user_todo" sheetId="7" r:id="rId12"/>
+    <sheet name="m_sys_users" sheetId="1" r:id="rId3"/>
+    <sheet name="m_sys_groups" sheetId="4" r:id="rId4"/>
+    <sheet name="m_sys_user_group_links" sheetId="5" r:id="rId5"/>
+    <sheet name="t_user_ope_histories" sheetId="6" r:id="rId6"/>
+    <sheet name="m_sys_roles" sheetId="8" r:id="rId7"/>
+    <sheet name="m_sys_authorities" sheetId="9" r:id="rId8"/>
+    <sheet name="m_sys_role_authority_links" sheetId="12" r:id="rId9"/>
+    <sheet name="m_sys_user_role_links" sheetId="13" r:id="rId10"/>
+    <sheet name="m_sys_group_role_links" sheetId="15" r:id="rId11"/>
+    <sheet name="t_user_todo_things" sheetId="7" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
@@ -310,29 +310,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="90">
   <si>
     <t>varchar(40)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>creater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamptz</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -667,34 +651,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>creater</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -703,34 +663,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>creater</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>todo_title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,10 +676,6 @@
   </si>
   <si>
     <t>creater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -779,10 +711,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>current_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>★</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -863,15 +791,28 @@
     <t>LOGTABLE</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,8 +1193,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
@@ -1262,11 +1231,16 @@
       <color rgb="FF66FFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1340,6 +1314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1374,6 +1349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,15 +1525,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B6:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="34"/>
     <col min="4" max="4" width="19.625" style="34" customWidth="1"/>
@@ -1567,45 +1543,45 @@
     <col min="8" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" s="25" customFormat="1" ht="6" customHeight="1"/>
-    <row r="7" spans="2:7" s="26" customFormat="1" ht="8.25" customHeight="1"/>
-    <row r="8" spans="2:7" s="28" customFormat="1" ht="43.5">
+    <row r="6" spans="2:7" s="25" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:7" s="26" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.15">
       <c r="B8" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="29" customFormat="1"/>
-    <row r="10" spans="2:7" s="30" customFormat="1" ht="4.5" customHeight="1"/>
-    <row r="11" spans="2:7" s="31" customFormat="1" ht="113.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:7" s="30" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:7" s="31" customFormat="1" ht="113.25" x14ac:dyDescent="0.15">
       <c r="C11" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="33" customFormat="1" ht="7.5" customHeight="1"/>
-    <row r="14" spans="2:7" ht="12.75" customHeight="1"/>
-    <row r="15" spans="2:7" s="35" customFormat="1" ht="22.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="33" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:7" s="35" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="C15" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G15" s="36">
         <v>42536</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="35" customFormat="1" ht="22.5">
+    <row r="16" spans="2:7" s="35" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="C16" s="35" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G16" s="36">
         <v>42536</v>
@@ -1618,7 +1594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1626,7 +1602,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
@@ -1637,15 +1613,15 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_user_role</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_user_role_links</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -1672,32 +1648,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1713,7 +1689,7 @@
       </c>
       <c r="E4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1721,12 +1697,12 @@
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1753,9 +1729,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="18.75">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1782,9 +1758,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1800,7 +1776,7 @@
       </c>
       <c r="E7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1808,12 +1784,12 @@
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1829,7 +1805,7 @@
       </c>
       <c r="E8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -1837,25 +1813,25 @@
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1864,9 +1840,9 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1875,43 +1851,43 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="38">
         <v>10001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1929,14 +1905,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
@@ -1947,15 +1924,15 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_group_role</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_group_role_links</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -1982,32 +1959,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2023,7 +2000,7 @@
       </c>
       <c r="E4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2031,12 +2008,12 @@
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2063,9 +2040,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="18.75">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2092,9 +2069,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2110,7 +2087,7 @@
       </c>
       <c r="E7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2118,12 +2095,12 @@
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2139,7 +2116,7 @@
       </c>
       <c r="E8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2147,25 +2124,25 @@
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2174,9 +2151,9 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2185,43 +2162,43 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2239,15 +2216,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="6" width="20.625" style="1" customWidth="1"/>
@@ -2258,15 +2235,15 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>t_user_todo</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="18.75">
+        <v>t_user_todo_things</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -2305,41 +2282,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2367,7 +2344,7 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="I4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2375,12 +2352,12 @@
       </c>
       <c r="J4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2419,9 +2396,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2460,9 +2437,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2490,7 +2467,7 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="I7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2498,12 +2475,12 @@
       </c>
       <c r="J7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2531,7 +2508,7 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="I8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(I$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -2539,15 +2516,15 @@
       </c>
       <c r="J8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(J$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2556,7 +2533,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2568,9 +2545,9 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11">
         <v>1000000001</v>
@@ -2584,50 +2561,50 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="38">
         <v>1000000001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2645,15 +2622,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
@@ -2661,238 +2638,238 @@
     <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2900,73 +2877,65 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>7</v>
-      </c>
       <c r="C20" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2986,15 +2955,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="9" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="9" customWidth="1"/>
@@ -3005,15 +2974,15 @@
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_user</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+        <v>m_sys_users</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -3044,35 +3013,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3092,7 +3061,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3100,12 +3069,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3136,9 +3105,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3169,9 +3138,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3191,7 +3160,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3199,12 +3168,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3224,7 +3193,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3232,15 +3201,15 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3249,7 +3218,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3259,9 +3228,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3271,51 +3240,51 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="13.5">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="カラム定義エラー" error="Oracle制限の30バイトを超えています" sqref="B3">
       <formula1>0</formula1>
       <formula2>30</formula2>
@@ -3328,15 +3297,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -3347,15 +3316,15 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_group</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_groups</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -3386,35 +3355,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3434,7 +3403,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3442,12 +3411,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3478,9 +3447,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3511,9 +3480,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3533,7 +3502,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3541,12 +3510,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3566,7 +3535,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3574,15 +3543,15 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3591,7 +3560,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3601,9 +3570,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3613,46 +3582,46 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3678,7 +3647,7 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -3689,15 +3658,15 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_user_group</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_user_group_links</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -3728,35 +3697,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3776,7 +3745,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3784,12 +3753,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3820,9 +3789,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3853,9 +3822,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3875,7 +3844,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3883,12 +3852,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3908,7 +3877,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -3916,18 +3885,18 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3935,7 +3904,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3945,9 +3914,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3957,46 +3926,46 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4014,15 +3983,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -4033,15 +4002,15 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>t_user_ope_history</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>t_user_ope_histories</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -4072,35 +4041,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4120,7 +4089,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4128,12 +4097,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4164,9 +4133,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="18.75">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4197,9 +4166,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4219,7 +4188,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4227,12 +4196,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4252,7 +4221,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4260,15 +4229,15 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -4277,7 +4246,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4287,9 +4256,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11">
         <v>1000000001</v>
@@ -4301,18 +4270,18 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -4342,7 +4311,7 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -4353,15 +4322,15 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_role</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_roles</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -4392,35 +4361,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4440,7 +4409,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4448,12 +4417,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4484,9 +4453,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4517,9 +4486,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4539,7 +4508,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4547,12 +4516,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4572,7 +4541,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4580,15 +4549,15 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -4597,7 +4566,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4607,9 +4576,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11">
         <v>10001</v>
@@ -4621,46 +4590,46 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="38">
         <v>10001</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4678,7 +4647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -4686,7 +4655,7 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -4697,15 +4666,15 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_authority</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_authorities</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -4736,35 +4705,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4784,7 +4753,7 @@
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4792,12 +4761,12 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4828,9 +4797,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4861,9 +4830,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4883,7 +4852,7 @@
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4891,12 +4860,12 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4916,7 +4885,7 @@
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -4924,15 +4893,15 @@
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(H$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -4941,7 +4910,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4951,9 +4920,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11">
         <v>10001</v>
@@ -4965,72 +4934,72 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="38">
         <v>10001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B16" s="38">
         <v>10002</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5048,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -5056,7 +5025,7 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
@@ -5067,15 +5036,15 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>m_sys_role_authority</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75">
+        <v>m_sys_role_authority_links</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <f>COLUMN()-1</f>
@@ -5102,32 +5071,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5143,7 +5112,7 @@
       </c>
       <c r="E4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
+        <v>timestamp</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5151,12 +5120,12 @@
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>timestamptz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v>timestamp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5183,9 +5152,9 @@
         <v>更新タイムスタンプ</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="18.75">
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5212,9 +5181,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5230,7 +5199,7 @@
       </c>
       <c r="E7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
+        <v/>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5238,12 +5207,12 @@
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>not null</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(B$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5259,7 +5228,7 @@
       </c>
       <c r="E8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(E$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
+        <v/>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(F$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
@@ -5267,18 +5236,18 @@
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(LEN(VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE)) &gt; 0, VLOOKUP(G$3,カラム定義!$A$1:$F$1002,ROW()-2,FALSE), "")</f>
-        <v>current_timestamp</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5286,7 +5255,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -5295,9 +5264,9 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -5306,25 +5275,25 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" s="38">
         <v>10001</v>
@@ -5333,21 +5302,21 @@
         <v>10001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B16" s="38">
         <v>10001</v>
@@ -5356,16 +5325,16 @@
         <v>10002</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
